--- a/FOIA SAR data/NATO AGS/RQ4 Data Draw.xlsx
+++ b/FOIA SAR data/NATO AGS/RQ4 Data Draw.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\2015-09 Joint Development\Research\NATO AGS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Greg Sanders\Documents\Development\R-scripts-and-data\FOIA SAR data\NATO AGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Cost and Funding" sheetId="2" r:id="rId2"/>
-    <sheet name="FMS" sheetId="3" r:id="rId3"/>
-    <sheet name="Unit Cost Report" sheetId="4" r:id="rId4"/>
-    <sheet name="APB Unit Cost History" sheetId="5" r:id="rId5"/>
+    <sheet name="Funding Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Foreign Military Sales" sheetId="3" r:id="rId3"/>
+    <sheet name="Unit Cost" sheetId="4" r:id="rId4"/>
+    <sheet name="Unit Cost History" sheetId="5" r:id="rId5"/>
     <sheet name="Cost Variance" sheetId="6" r:id="rId6"/>
     <sheet name="Contracts" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -558,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1295,18 +1295,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,15 +1379,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1388,6 +1427,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,89 +1460,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,6 +1583,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1618,6 +1635,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1792,63 +1826,63 @@
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="88"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="103"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="97" t="s">
+      <c r="D4" s="106"/>
+      <c r="E4" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="99"/>
       <c r="B5" s="99"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="99"/>
       <c r="F5" s="99"/>
       <c r="G5" s="99"/>
       <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2138,24 +2172,24 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="97" t="s">
+      <c r="D19" s="98" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="98"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="100"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2200,26 +2234,21 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:D6"/>
@@ -2229,6 +2258,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2239,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD199"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,40 +2787,40 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="100" t="s">
+      <c r="E22" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="100" t="s">
+      <c r="G22" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="102" t="s">
+      <c r="H22" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="103"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="116"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -3267,40 +3301,40 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="104" t="s">
+      <c r="A45" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="100" t="s">
+      <c r="B45" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="100" t="s">
+      <c r="C45" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="100" t="s">
+      <c r="E45" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="100" t="s">
+      <c r="F45" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="100" t="s">
+      <c r="G45" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="103"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="116"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
@@ -3782,40 +3816,40 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="104" t="s">
+      <c r="A68" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="100" t="s">
+      <c r="B68" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="100" t="s">
+      <c r="C68" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="100" t="s">
+      <c r="D68" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E68" s="100" t="s">
+      <c r="E68" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="100" t="s">
+      <c r="F68" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="100" t="s">
+      <c r="G68" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="H68" s="102" t="s">
+      <c r="H68" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="105"/>
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="103"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="116"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
@@ -4036,40 +4070,40 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="104" t="s">
+      <c r="A81" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="100" t="s">
+      <c r="B81" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="C81" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="D81" s="100" t="s">
+      <c r="D81" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="100" t="s">
+      <c r="E81" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="100" t="s">
+      <c r="F81" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="100" t="s">
+      <c r="G81" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H81" s="102" t="s">
+      <c r="H81" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="105"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="103"/>
+      <c r="A82" s="118"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="116"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
@@ -4290,40 +4324,40 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="104" t="s">
+      <c r="A94" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B94" s="100" t="s">
+      <c r="B94" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C94" s="100" t="s">
+      <c r="C94" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="D94" s="100" t="s">
+      <c r="D94" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="E94" s="100" t="s">
+      <c r="E94" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="F94" s="100" t="s">
+      <c r="F94" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G94" s="100" t="s">
+      <c r="G94" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="H94" s="102" t="s">
+      <c r="H94" s="115" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="105"/>
-      <c r="B95" s="101"/>
-      <c r="C95" s="101"/>
-      <c r="D95" s="101"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
-      <c r="H95" s="103"/>
+      <c r="A95" s="118"/>
+      <c r="B95" s="114"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="114"/>
+      <c r="H95" s="116"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
@@ -4934,40 +4968,40 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="104" t="s">
+      <c r="A122" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B122" s="100" t="s">
+      <c r="B122" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C122" s="100" t="s">
+      <c r="C122" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="D122" s="100" t="s">
+      <c r="D122" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E122" s="100" t="s">
+      <c r="E122" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="F122" s="100" t="s">
+      <c r="F122" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="G122" s="100" t="s">
+      <c r="G122" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="H122" s="102" t="s">
+      <c r="H122" s="115" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="105"/>
-      <c r="B123" s="101"/>
-      <c r="C123" s="101"/>
-      <c r="D123" s="101"/>
-      <c r="E123" s="101"/>
-      <c r="F123" s="101"/>
-      <c r="G123" s="101"/>
-      <c r="H123" s="103"/>
+      <c r="A123" s="118"/>
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="114"/>
+      <c r="E123" s="114"/>
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="116"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
@@ -6026,6 +6060,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
@@ -6042,38 +6108,6 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6097,11 +6131,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -6189,8 +6223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,30 +6246,30 @@
       <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="120" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="123" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="111"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="124"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="115"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="112"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="66" t="s">
@@ -6339,30 +6373,30 @@
       <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="120" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="123" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="111"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="124"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="112"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="125"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
@@ -6484,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6497,22 +6531,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="126"/>
+      <c r="B1" s="133"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="77"/>
-      <c r="C2" s="122" t="s">
+      <c r="C2" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="125"/>
+      <c r="F2" s="132"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -6673,33 +6707,33 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="116" t="s">
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="134" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="117"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="78" t="s">
         <v>95</v>
       </c>
@@ -6724,7 +6758,7 @@
       <c r="I14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="117"/>
+      <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6759,33 +6793,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="116" t="s">
+      <c r="A18" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="116" t="s">
+      <c r="C18" s="137"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="134" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="117"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="78" t="s">
         <v>95</v>
       </c>
@@ -6810,7 +6844,7 @@
       <c r="I19" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="117"/>
+      <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6846,17 +6880,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6881,13 +6915,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="129"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
@@ -7271,13 +7305,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="128" t="s">
+      <c r="A27" s="141" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="129"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="79"/>
@@ -7654,29 +7688,29 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="125"/>
+      <c r="C52" s="132"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="120" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="137"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="137"/>
+      <c r="A54" s="140"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
     </row>
     <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
@@ -7712,7 +7746,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="131" t="s">
+      <c r="A58" s="144" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="7">
@@ -7723,7 +7757,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="131"/>
+      <c r="A59" s="144"/>
       <c r="B59" s="7">
         <v>3.2</v>
       </c>
@@ -7732,18 +7766,18 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="134">
+      <c r="B60" s="88">
         <v>-21.5</v>
       </c>
-      <c r="C60" s="134">
+      <c r="C60" s="88">
         <v>-27.7</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="87" t="s">
         <v>129</v>
       </c>
       <c r="B61" s="7">
@@ -7754,7 +7788,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="87" t="s">
         <v>130</v>
       </c>
       <c r="B62" s="7">
@@ -7765,7 +7799,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="87" t="s">
         <v>128</v>
       </c>
       <c r="B63" s="7">
@@ -7776,7 +7810,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="133" t="s">
+      <c r="A64" s="87" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="7">
@@ -7787,13 +7821,13 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="135">
+      <c r="B65" s="89">
         <v>25</v>
       </c>
-      <c r="C65" s="135">
+      <c r="C65" s="89">
         <v>34.700000000000003</v>
       </c>
     </row>
@@ -7810,29 +7844,29 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="130" t="s">
+      <c r="A68" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="125"/>
+      <c r="C68" s="132"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="107" t="s">
+      <c r="A69" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="107" t="s">
+      <c r="C69" s="120" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="137"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="137"/>
+      <c r="A70" s="140"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140"/>
     </row>
     <row r="71" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
@@ -7890,18 +7924,18 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="132" t="s">
+      <c r="A76" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="B76" s="134">
+      <c r="B76" s="88">
         <v>6.2</v>
       </c>
-      <c r="C76" s="134">
+      <c r="C76" s="88">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="133" t="s">
+      <c r="A77" s="87" t="s">
         <v>145</v>
       </c>
       <c r="B77" s="7">
@@ -7912,7 +7946,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="133" t="s">
+      <c r="A78" s="87" t="s">
         <v>129</v>
       </c>
       <c r="B78" s="7">
@@ -7923,7 +7957,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="133" t="s">
+      <c r="A79" s="87" t="s">
         <v>144</v>
       </c>
       <c r="B79" s="7">
@@ -7934,29 +7968,29 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="B80" s="139">
+      <c r="B80" s="92">
         <v>16.5</v>
       </c>
-      <c r="C80" s="139">
+      <c r="C80" s="92">
         <v>23.1</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="138" t="s">
+      <c r="A81" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="B81" s="139">
+      <c r="B81" s="92">
         <v>49.5</v>
       </c>
-      <c r="C81" s="139">
+      <c r="C81" s="92">
         <v>69.400000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="133" t="s">
+      <c r="A82" s="87" t="s">
         <v>140</v>
       </c>
       <c r="B82" s="7">
@@ -7967,7 +8001,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="133" t="s">
+      <c r="A83" s="87" t="s">
         <v>139</v>
       </c>
       <c r="B83" s="7">
@@ -7978,7 +8012,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="133" t="s">
+      <c r="A84" s="87" t="s">
         <v>138</v>
       </c>
       <c r="B84" s="7">
@@ -7989,7 +8023,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="87" t="s">
         <v>137</v>
       </c>
       <c r="B85" s="7">
@@ -8000,7 +8034,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="133" t="s">
+      <c r="A86" s="87" t="s">
         <v>136</v>
       </c>
       <c r="B86" s="7">
@@ -8011,13 +8045,13 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="136" t="s">
+      <c r="A87" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="B87" s="135">
+      <c r="B87" s="89">
         <v>-12.9</v>
       </c>
-      <c r="C87" s="135">
+      <c r="C87" s="89">
         <v>-8</v>
       </c>
     </row>
@@ -8034,6 +8068,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A58:A59"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="A69:A70"/>
@@ -8041,10 +8079,6 @@
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B53:B54"/>
     <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:A59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8055,7 +8089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -8069,80 +8103,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="145" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="95" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="94" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="94" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="C5" s="140"/>
+      <c r="C5" s="93"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="145">
+      <c r="B6" s="96">
         <v>40085</v>
       </c>
-      <c r="C6" s="140"/>
+      <c r="C6" s="93"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="145">
+      <c r="B7" s="96">
         <v>40478</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="145" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="146"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="141" t="s">
+      <c r="C9" s="147"/>
+      <c r="D9" s="145" t="s">
         <v>160</v>
       </c>
       <c r="E9" s="146"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="147" t="s">
+      <c r="F9" s="147"/>
+      <c r="G9" s="148" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="148"/>
+      <c r="H9" s="149"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="97" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="55" t="s">
@@ -8245,71 +8279,71 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="145" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="142"/>
+      <c r="B20" s="147"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="95" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="94" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="94" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="143" t="s">
+      <c r="B23" s="94" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="140"/>
+      <c r="C24" s="93"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="145">
+      <c r="B25" s="96">
         <v>40085</v>
       </c>
-      <c r="C25" s="140"/>
+      <c r="C25" s="93"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="B26" s="145">
+      <c r="B26" s="96">
         <v>40478</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="145" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="146"/>
-      <c r="C28" s="142"/>
+      <c r="C28" s="147"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="97" t="s">
         <v>162</v>
       </c>
       <c r="B29" s="55" t="s">

--- a/FOIA SAR data/NATO AGS/RQ4 Data Draw.xlsx
+++ b/FOIA SAR data/NATO AGS/RQ4 Data Draw.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cost Summary" sheetId="1" r:id="rId1"/>
@@ -1334,51 +1334,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,6 +1427,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
@@ -1442,27 +1460,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1489,6 +1486,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1826,63 +1826,63 @@
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="103"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="98" t="s">
+      <c r="D4" s="103"/>
+      <c r="E4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="110" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -2172,24 +2172,24 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="111" t="s">
+      <c r="C19" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="110" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="100"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="111"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
@@ -2234,21 +2234,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="A25:D26"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="C4:D6"/>
@@ -2258,11 +2263,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6060,38 +6060,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="H22:H23"/>
@@ -6108,6 +6076,38 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6518,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6531,22 +6531,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="133"/>
+      <c r="B1" s="139"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="77"/>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="131" t="s">
+      <c r="D2" s="136"/>
+      <c r="E2" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="132"/>
+      <c r="F2" s="138"/>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -6707,33 +6707,33 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="134" t="s">
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="129" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="135"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="78" t="s">
         <v>95</v>
       </c>
@@ -6758,7 +6758,7 @@
       <c r="I14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="135"/>
+      <c r="J14" s="130"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -6793,33 +6793,33 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="139" t="s">
+      <c r="A17" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="129" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="136" t="s">
+      <c r="B18" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="137"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="134" t="s">
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="129" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="135"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="78" t="s">
         <v>95</v>
       </c>
@@ -6844,7 +6844,7 @@
       <c r="I19" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="135"/>
+      <c r="J19" s="130"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -6880,17 +6880,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:I18"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6898,10 +6898,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6915,13 +6915,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="79"/>
@@ -7305,13 +7305,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="142"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="79"/>
@@ -7691,394 +7691,378 @@
       <c r="A52" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="132"/>
+      <c r="C52" s="138"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="120" t="s">
+      <c r="A53" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="120" t="s">
+      <c r="B53" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="120" t="s">
+      <c r="C53" s="149" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="140"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-    </row>
-    <row r="55" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>-6.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="B55" s="7">
+        <v>-36.700000000000003</v>
       </c>
       <c r="C55" s="7">
-        <v>-6.3</v>
+        <v>-49.5</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B56" s="7">
-        <v>-36.700000000000003</v>
+        <v>26.8</v>
       </c>
       <c r="C56" s="7">
-        <v>-49.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>123</v>
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="143" t="s">
+        <v>122</v>
       </c>
       <c r="B57" s="7">
-        <v>26.8</v>
+        <v>21.5</v>
       </c>
       <c r="C57" s="7">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="144" t="s">
-        <v>122</v>
-      </c>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="143"/>
       <c r="B58" s="7">
-        <v>21.5</v>
+        <v>3.2</v>
       </c>
       <c r="C58" s="7">
-        <v>28.8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="144"/>
-      <c r="B59" s="7">
-        <v>3.2</v>
-      </c>
-      <c r="C59" s="7">
         <v>3.9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+    <row r="59" spans="1:5" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="88">
+      <c r="B59" s="88">
         <v>-21.5</v>
       </c>
-      <c r="C60" s="88">
+      <c r="C59" s="88">
         <v>-27.7</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="7">
+        <v>-0.3</v>
+      </c>
+      <c r="C60" s="7">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" s="7">
-        <v>-0.3</v>
+        <v>97.4</v>
       </c>
       <c r="C61" s="7">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="87" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="7">
-        <v>97.4</v>
+        <v>27.1</v>
       </c>
       <c r="C62" s="7">
-        <v>132</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" s="7">
-        <v>27.1</v>
+        <v>4.7</v>
       </c>
       <c r="C63" s="7">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="C64" s="7">
         <v>6.2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="89">
+      <c r="B64" s="89">
         <v>25</v>
       </c>
-      <c r="C65" s="89">
+      <c r="C64" s="89">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B65" s="7">
         <v>147.19999999999999</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C65" s="7">
         <v>195.1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="85" t="s">
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="131" t="s">
+      <c r="B67" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="132"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="120" t="s">
+      <c r="C67" s="138"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="120" t="s">
+      <c r="B68" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="C69" s="120" t="s">
+      <c r="C68" s="149" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="140"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-    </row>
-    <row r="71" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-21.1</v>
+      </c>
+      <c r="C70" s="7">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1</v>
+        <v>133</v>
+      </c>
+      <c r="B71" s="7">
+        <v>-28.1</v>
       </c>
       <c r="C71" s="7">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+        <v>-40.200000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="57" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B72" s="7">
-        <v>-21.1</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C72" s="7">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B73" s="7">
-        <v>-28.1</v>
+        <v>15.9</v>
       </c>
       <c r="C73" s="7">
-        <v>-40.200000000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="57" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="7">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="C74" s="7">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>142</v>
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="88">
+        <v>6.2</v>
+      </c>
+      <c r="C74" s="88">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="B75" s="7">
-        <v>15.9</v>
+        <v>-120.2</v>
       </c>
       <c r="C75" s="7">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="88">
-        <v>6.2</v>
-      </c>
-      <c r="C76" s="88">
-        <v>8.1999999999999993</v>
+        <v>-157.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="7">
+        <v>-111.9</v>
+      </c>
+      <c r="C76" s="7">
+        <v>-131.6</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" s="7">
-        <v>-120.2</v>
+        <v>42</v>
       </c>
       <c r="C77" s="7">
-        <v>-157.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="7">
-        <v>-111.9</v>
-      </c>
-      <c r="C78" s="7">
-        <v>-131.6</v>
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="92">
+        <v>16.5</v>
+      </c>
+      <c r="C78" s="92">
+        <v>23.1</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="B79" s="7">
-        <v>42</v>
-      </c>
-      <c r="C79" s="7">
-        <v>59.7</v>
+      <c r="A79" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="92">
+        <v>49.5</v>
+      </c>
+      <c r="C79" s="92">
+        <v>69.400000000000006</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="B80" s="92">
-        <v>16.5</v>
-      </c>
-      <c r="C80" s="92">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="B81" s="92">
-        <v>49.5</v>
-      </c>
-      <c r="C81" s="92">
-        <v>69.400000000000006</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="C80" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="7">
+        <v>29.9</v>
+      </c>
+      <c r="C81" s="7">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B82" s="7">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="C82" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="7">
-        <v>29.9</v>
+        <v>2.5</v>
       </c>
       <c r="C83" s="7">
-        <v>41.3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B84" s="7">
-        <v>2.1</v>
+        <v>9.5</v>
       </c>
       <c r="C84" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="B85" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="C85" s="7">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="87" t="s">
-        <v>136</v>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="89">
+        <v>-12.9</v>
+      </c>
+      <c r="C85" s="89">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>134</v>
       </c>
       <c r="B86" s="7">
-        <v>9.5</v>
+        <v>-76.7</v>
       </c>
       <c r="C86" s="7">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B87" s="89">
-        <v>-12.9</v>
-      </c>
-      <c r="C87" s="89">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>134</v>
-      </c>
-      <c r="B88" s="7">
-        <v>-76.7</v>
-      </c>
-      <c r="C88" s="7">
         <v>-74.7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="5">
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B67:C67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8103,10 +8087,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="146"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="94" t="s">
@@ -8160,20 +8144,20 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="146"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="145" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="148" t="s">
+      <c r="E9" s="145"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="149"/>
+      <c r="H9" s="148"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -8279,10 +8263,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="147"/>
+      <c r="B20" s="146"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="94" t="s">
@@ -8336,11 +8320,11 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="B28" s="146"/>
-      <c r="C28" s="147"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="97" t="s">
